--- a/02_Data/04_Social indicators/02_Cleaned Data/GDP.xlsx
+++ b/02_Data/04_Social indicators/02_Cleaned Data/GDP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhachaichi\Documents\ESPON-DATA\02_Data\04_Social indicators\02_Cleaned Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4239BD-87C3-4247-99DF-34C9E941BD0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7467F5D-8A0B-4EF2-8BD2-199B28000825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1575" windowWidth="12870" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="153">
   <si>
     <t xml:space="preserve">Country </t>
   </si>
@@ -388,13 +388,109 @@
   </si>
   <si>
     <t>Obalno-kraška</t>
+  </si>
+  <si>
+    <t>NUTS3</t>
+  </si>
+  <si>
+    <t>Budapest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pest </t>
+  </si>
+  <si>
+    <t>Közép-Magyarország</t>
+  </si>
+  <si>
+    <t>Fejér</t>
+  </si>
+  <si>
+    <t>Komárom-Esztergom</t>
+  </si>
+  <si>
+    <t>Veszprém</t>
+  </si>
+  <si>
+    <t>Közép-Dunántúl</t>
+  </si>
+  <si>
+    <t>Győr-Moson-Sopron</t>
+  </si>
+  <si>
+    <t>Vas</t>
+  </si>
+  <si>
+    <t>Zala</t>
+  </si>
+  <si>
+    <t>Nyugat-Dunántúl</t>
+  </si>
+  <si>
+    <t>Baranya</t>
+  </si>
+  <si>
+    <t>Somogy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tolna </t>
+  </si>
+  <si>
+    <t>Dél-Dunántúl</t>
+  </si>
+  <si>
+    <t>Dunántúl</t>
+  </si>
+  <si>
+    <t>Borsod-Abaúj-Zemplén</t>
+  </si>
+  <si>
+    <t>Heves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nógrád </t>
+  </si>
+  <si>
+    <t>Észak-Magyarország</t>
+  </si>
+  <si>
+    <t>Hajdú-Bihar</t>
+  </si>
+  <si>
+    <t>Jász-Nagykun-Szolnok</t>
+  </si>
+  <si>
+    <t>Szabolcs-Szatmár-Bereg</t>
+  </si>
+  <si>
+    <t>Észak-Alföld</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bács-Kiskun </t>
+  </si>
+  <si>
+    <t>Békés</t>
+  </si>
+  <si>
+    <t>Csongrád-Csanád</t>
+  </si>
+  <si>
+    <t>Dél-Alföld</t>
+  </si>
+  <si>
+    <t>Alföld és Észak</t>
+  </si>
+  <si>
+    <t>Ország összesen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulgaria </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -423,6 +519,40 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -447,18 +577,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normál 2 2 2" xfId="1" xr:uid="{E636B571-D1B6-4084-A892-D5BFE4EC7A25}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -736,10 +879,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G116"/>
+  <dimension ref="A1:G145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="F103" sqref="F103"/>
+    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="E146" sqref="E146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2373,8 +2516,424 @@
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F116" s="2">
-        <v>20576</v>
+      <c r="A116" t="s">
+        <v>152</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D116" t="s">
+        <v>121</v>
+      </c>
+      <c r="E116" s="5">
+        <v>10048</v>
+      </c>
+      <c r="F116" s="2"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>152</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D117" t="s">
+        <v>121</v>
+      </c>
+      <c r="E117" s="5">
+        <v>3874</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>152</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D118" t="s">
+        <v>121</v>
+      </c>
+      <c r="E118" s="5">
+        <v>7432</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>152</v>
+      </c>
+      <c r="C119" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D119" t="s">
+        <v>121</v>
+      </c>
+      <c r="E119" s="6">
+        <v>4823</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>152</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D120" t="s">
+        <v>121</v>
+      </c>
+      <c r="E120" s="6">
+        <v>4879</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>152</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D121" t="s">
+        <v>121</v>
+      </c>
+      <c r="E121" s="6">
+        <v>3696</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>152</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D122" t="s">
+        <v>121</v>
+      </c>
+      <c r="E122" s="5">
+        <v>4476</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>152</v>
+      </c>
+      <c r="C123" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="D123" t="s">
+        <v>121</v>
+      </c>
+      <c r="E123" s="6">
+        <v>5525</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>152</v>
+      </c>
+      <c r="C124" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D124" t="s">
+        <v>121</v>
+      </c>
+      <c r="E124" s="6">
+        <v>4379</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>152</v>
+      </c>
+      <c r="C125" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D125" t="s">
+        <v>121</v>
+      </c>
+      <c r="E125" s="6">
+        <v>3654</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>152</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D126" t="s">
+        <v>121</v>
+      </c>
+      <c r="E126" s="5">
+        <v>4726</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>152</v>
+      </c>
+      <c r="C127" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D127" t="s">
+        <v>121</v>
+      </c>
+      <c r="E127" s="6">
+        <v>3303</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>152</v>
+      </c>
+      <c r="C128" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D128" t="s">
+        <v>121</v>
+      </c>
+      <c r="E128" s="6">
+        <v>3158</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>152</v>
+      </c>
+      <c r="C129" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D129" t="s">
+        <v>121</v>
+      </c>
+      <c r="E129" s="6">
+        <v>3697</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>152</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D130" t="s">
+        <v>121</v>
+      </c>
+      <c r="E130" s="5">
+        <v>3351</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>152</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D131" t="s">
+        <v>121</v>
+      </c>
+      <c r="E131" s="5">
+        <v>4224</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>152</v>
+      </c>
+      <c r="C132" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D132" t="s">
+        <v>121</v>
+      </c>
+      <c r="E132" s="6">
+        <v>3336</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>152</v>
+      </c>
+      <c r="C133" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D133" t="s">
+        <v>121</v>
+      </c>
+      <c r="E133" s="6">
+        <v>3745</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>152</v>
+      </c>
+      <c r="C134" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D134" t="s">
+        <v>121</v>
+      </c>
+      <c r="E134" s="6">
+        <v>2154</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>152</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D135" t="s">
+        <v>121</v>
+      </c>
+      <c r="E135" s="5">
+        <v>3244</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>152</v>
+      </c>
+      <c r="C136" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D136" t="s">
+        <v>121</v>
+      </c>
+      <c r="E136" s="6">
+        <v>3466</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>152</v>
+      </c>
+      <c r="C137" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D137" t="s">
+        <v>121</v>
+      </c>
+      <c r="E137" s="6">
+        <v>3129</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>152</v>
+      </c>
+      <c r="C138" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D138" t="s">
+        <v>121</v>
+      </c>
+      <c r="E138" s="6">
+        <v>2857</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>152</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D139" t="s">
+        <v>121</v>
+      </c>
+      <c r="E139" s="5">
+        <v>3148</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>152</v>
+      </c>
+      <c r="C140" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D140" t="s">
+        <v>121</v>
+      </c>
+      <c r="E140" s="6">
+        <v>3938</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>152</v>
+      </c>
+      <c r="C141" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D141" t="s">
+        <v>121</v>
+      </c>
+      <c r="E141" s="6">
+        <v>2863</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>152</v>
+      </c>
+      <c r="C142" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D142" t="s">
+        <v>121</v>
+      </c>
+      <c r="E142" s="6">
+        <v>3584</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>152</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D143" t="s">
+        <v>121</v>
+      </c>
+      <c r="E143" s="5">
+        <v>3534</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>152</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D144" t="s">
+        <v>121</v>
+      </c>
+      <c r="E144" s="5">
+        <v>3302</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>152</v>
+      </c>
+      <c r="C145" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D145" t="s">
+        <v>121</v>
+      </c>
+      <c r="E145" s="5">
+        <v>4863</v>
       </c>
     </row>
   </sheetData>

--- a/02_Data/04_Social indicators/02_Cleaned Data/GDP.xlsx
+++ b/02_Data/04_Social indicators/02_Cleaned Data/GDP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhachaichi\Documents\ESPON-DATA\02_Data\04_Social indicators\02_Cleaned Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7467F5D-8A0B-4EF2-8BD2-199B28000825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC80F82-227A-4D58-A3F0-7FCABDBB4882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1575" windowWidth="12870" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16155" yWindow="2400" windowWidth="12870" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="154">
   <si>
     <t xml:space="preserve">Country </t>
   </si>
@@ -484,13 +484,16 @@
   </si>
   <si>
     <t xml:space="preserve">Bulgaria </t>
+  </si>
+  <si>
+    <t>SLOVENIA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -553,6 +556,12 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -577,16 +586,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -598,9 +607,12 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{3DDE1ED1-1459-46F2-AC2B-F60445D018EF}"/>
     <cellStyle name="Normál 2 2 2" xfId="1" xr:uid="{E636B571-D1B6-4084-A892-D5BFE4EC7A25}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -879,10 +891,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G145"/>
+  <dimension ref="A1:G146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="E146" sqref="E146"/>
+    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="B140" sqref="B140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2349,184 +2361,196 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>108</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D104">
-        <v>3</v>
-      </c>
-      <c r="F104" s="2">
-        <v>22312</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D104" t="s">
+        <v>121</v>
+      </c>
+      <c r="E104" s="4">
+        <v>10048</v>
+      </c>
+      <c r="F104" s="2"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>108</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D105">
-        <v>3</v>
-      </c>
-      <c r="F105" s="2">
-        <v>15448</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D105" t="s">
+        <v>121</v>
+      </c>
+      <c r="E105" s="4">
+        <v>3874</v>
+      </c>
+      <c r="F105" s="2"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>108</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D106">
-        <v>3</v>
-      </c>
-      <c r="F106" s="2">
-        <v>18185</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D106" t="s">
+        <v>121</v>
+      </c>
+      <c r="E106" s="4">
+        <v>7432</v>
+      </c>
+      <c r="F106" s="2"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>108</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D107">
-        <v>3</v>
-      </c>
-      <c r="F107" s="2">
-        <v>17756</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D107" t="s">
+        <v>121</v>
+      </c>
+      <c r="E107" s="5">
+        <v>4823</v>
+      </c>
+      <c r="F107" s="2"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>108</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D108">
-        <v>3</v>
-      </c>
-      <c r="F108" s="2">
-        <v>19886</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D108" t="s">
+        <v>121</v>
+      </c>
+      <c r="E108" s="5">
+        <v>4879</v>
+      </c>
+      <c r="F108" s="2"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>108</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D109">
-        <v>3</v>
-      </c>
-      <c r="F109" s="2">
-        <v>12174</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D109" t="s">
+        <v>121</v>
+      </c>
+      <c r="E109" s="5">
+        <v>3696</v>
+      </c>
+      <c r="F109" s="2"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>108</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D110">
-        <v>3</v>
-      </c>
-      <c r="F110" s="2">
-        <v>19565</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D110" t="s">
+        <v>121</v>
+      </c>
+      <c r="E110" s="4">
+        <v>4476</v>
+      </c>
+      <c r="F110" s="2"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>108</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D111">
-        <v>3</v>
-      </c>
-      <c r="F111" s="2">
-        <v>22388</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D111" t="s">
+        <v>121</v>
+      </c>
+      <c r="E111" s="5">
+        <v>5525</v>
+      </c>
+      <c r="F111" s="2"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>108</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D112">
-        <v>3</v>
-      </c>
-      <c r="F112" s="2">
-        <v>32168</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D112" t="s">
+        <v>121</v>
+      </c>
+      <c r="E112" s="5">
+        <v>4379</v>
+      </c>
+      <c r="F112" s="2"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>108</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D113">
-        <v>3</v>
-      </c>
-      <c r="F113" s="2">
-        <v>18893</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D113" t="s">
+        <v>121</v>
+      </c>
+      <c r="E113" s="5">
+        <v>3654</v>
+      </c>
+      <c r="F113" s="2"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>108</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D114">
-        <v>3</v>
-      </c>
-      <c r="F114" s="2">
-        <v>15372</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D114" t="s">
+        <v>121</v>
+      </c>
+      <c r="E114" s="4">
+        <v>4726</v>
+      </c>
+      <c r="F114" s="2"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>108</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D115">
-        <v>3</v>
-      </c>
-      <c r="F115" s="2">
-        <v>19551</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D115" t="s">
+        <v>121</v>
+      </c>
+      <c r="E115" s="5">
+        <v>3303</v>
+      </c>
+      <c r="F115" s="2"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>152</v>
       </c>
-      <c r="C116" s="7" t="s">
-        <v>122</v>
+      <c r="C116" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="D116" t="s">
         <v>121</v>
       </c>
       <c r="E116" s="5">
-        <v>10048</v>
+        <v>3158</v>
       </c>
       <c r="F116" s="2"/>
     </row>
@@ -2534,406 +2558,459 @@
       <c r="A117" t="s">
         <v>152</v>
       </c>
-      <c r="C117" s="7" t="s">
-        <v>123</v>
+      <c r="C117" s="8" t="s">
+        <v>135</v>
       </c>
       <c r="D117" t="s">
         <v>121</v>
       </c>
       <c r="E117" s="5">
-        <v>3874</v>
+        <v>3697</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>152</v>
       </c>
-      <c r="C118" s="8" t="s">
-        <v>124</v>
+      <c r="C118" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="D118" t="s">
         <v>121</v>
       </c>
-      <c r="E118" s="5">
-        <v>7432</v>
+      <c r="E118" s="4">
+        <v>3351</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>152</v>
       </c>
-      <c r="C119" s="9" t="s">
-        <v>125</v>
+      <c r="C119" s="7" t="s">
+        <v>137</v>
       </c>
       <c r="D119" t="s">
         <v>121</v>
       </c>
-      <c r="E119" s="6">
-        <v>4823</v>
+      <c r="E119" s="4">
+        <v>4224</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>152</v>
       </c>
-      <c r="C120" s="9" t="s">
-        <v>126</v>
+      <c r="C120" s="8" t="s">
+        <v>138</v>
       </c>
       <c r="D120" t="s">
         <v>121</v>
       </c>
-      <c r="E120" s="6">
-        <v>4879</v>
+      <c r="E120" s="5">
+        <v>3336</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>152</v>
       </c>
-      <c r="C121" s="9" t="s">
-        <v>127</v>
+      <c r="C121" s="8" t="s">
+        <v>139</v>
       </c>
       <c r="D121" t="s">
         <v>121</v>
       </c>
-      <c r="E121" s="6">
-        <v>3696</v>
+      <c r="E121" s="5">
+        <v>3745</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>152</v>
       </c>
-      <c r="C122" s="7" t="s">
-        <v>128</v>
+      <c r="C122" s="8" t="s">
+        <v>140</v>
       </c>
       <c r="D122" t="s">
         <v>121</v>
       </c>
       <c r="E122" s="5">
-        <v>4476</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>152</v>
       </c>
-      <c r="C123" s="9" t="s">
-        <v>129</v>
+      <c r="C123" s="6" t="s">
+        <v>141</v>
       </c>
       <c r="D123" t="s">
         <v>121</v>
       </c>
-      <c r="E123" s="6">
-        <v>5525</v>
+      <c r="E123" s="4">
+        <v>3244</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>152</v>
       </c>
-      <c r="C124" s="9" t="s">
-        <v>130</v>
+      <c r="C124" s="8" t="s">
+        <v>142</v>
       </c>
       <c r="D124" t="s">
         <v>121</v>
       </c>
-      <c r="E124" s="6">
-        <v>4379</v>
+      <c r="E124" s="5">
+        <v>3466</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>152</v>
       </c>
-      <c r="C125" s="9" t="s">
-        <v>131</v>
+      <c r="C125" s="8" t="s">
+        <v>143</v>
       </c>
       <c r="D125" t="s">
         <v>121</v>
       </c>
-      <c r="E125" s="6">
-        <v>3654</v>
+      <c r="E125" s="5">
+        <v>3129</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>152</v>
       </c>
-      <c r="C126" s="7" t="s">
-        <v>132</v>
+      <c r="C126" s="8" t="s">
+        <v>144</v>
       </c>
       <c r="D126" t="s">
         <v>121</v>
       </c>
       <c r="E126" s="5">
-        <v>4726</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>152</v>
       </c>
-      <c r="C127" s="9" t="s">
-        <v>133</v>
+      <c r="C127" s="6" t="s">
+        <v>145</v>
       </c>
       <c r="D127" t="s">
         <v>121</v>
       </c>
-      <c r="E127" s="6">
-        <v>3303</v>
+      <c r="E127" s="4">
+        <v>3148</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>152</v>
       </c>
-      <c r="C128" s="9" t="s">
-        <v>134</v>
+      <c r="C128" s="8" t="s">
+        <v>146</v>
       </c>
       <c r="D128" t="s">
         <v>121</v>
       </c>
-      <c r="E128" s="6">
-        <v>3158</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E128" s="5">
+        <v>3938</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>152</v>
       </c>
-      <c r="C129" s="9" t="s">
-        <v>135</v>
+      <c r="C129" s="8" t="s">
+        <v>147</v>
       </c>
       <c r="D129" t="s">
         <v>121</v>
       </c>
-      <c r="E129" s="6">
-        <v>3697</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E129" s="5">
+        <v>2863</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>152</v>
       </c>
-      <c r="C130" s="7" t="s">
-        <v>136</v>
+      <c r="C130" s="8" t="s">
+        <v>148</v>
       </c>
       <c r="D130" t="s">
         <v>121</v>
       </c>
       <c r="E130" s="5">
-        <v>3351</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3584</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>152</v>
       </c>
-      <c r="C131" s="8" t="s">
-        <v>137</v>
+      <c r="C131" s="6" t="s">
+        <v>149</v>
       </c>
       <c r="D131" t="s">
         <v>121</v>
       </c>
-      <c r="E131" s="5">
-        <v>4224</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E131" s="4">
+        <v>3534</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>152</v>
       </c>
-      <c r="C132" s="9" t="s">
-        <v>138</v>
+      <c r="C132" s="7" t="s">
+        <v>150</v>
       </c>
       <c r="D132" t="s">
         <v>121</v>
       </c>
-      <c r="E132" s="6">
-        <v>3336</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E132" s="4">
+        <v>3302</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>152</v>
       </c>
-      <c r="C133" s="9" t="s">
-        <v>139</v>
+      <c r="C133" s="6" t="s">
+        <v>151</v>
       </c>
       <c r="D133" t="s">
         <v>121</v>
       </c>
-      <c r="E133" s="6">
-        <v>3745</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E133" s="4">
+        <v>4863</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="D134" t="s">
         <v>121</v>
       </c>
-      <c r="E134" s="6">
-        <v>2154</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E134" s="10">
+        <v>23167</v>
+      </c>
+      <c r="F134" s="10">
+        <v>22312</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>152</v>
-      </c>
-      <c r="C135" s="7" t="s">
-        <v>141</v>
+        <v>108</v>
+      </c>
+      <c r="C135" s="9" t="s">
+        <v>109</v>
       </c>
       <c r="D135" t="s">
         <v>121</v>
       </c>
-      <c r="E135" s="5">
-        <v>3244</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E135" s="10">
+        <v>15689</v>
+      </c>
+      <c r="F135" s="10">
+        <v>15448</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="D136" t="s">
         <v>121</v>
       </c>
-      <c r="E136" s="6">
-        <v>3466</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E136" s="10">
+        <v>18890</v>
+      </c>
+      <c r="F136" s="10">
+        <v>18185</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="D137" t="s">
         <v>121</v>
       </c>
-      <c r="E137" s="6">
-        <v>3129</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E137" s="10">
+        <v>18667</v>
+      </c>
+      <c r="F137" s="10">
+        <v>17756</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="C138" s="9" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="D138" t="s">
         <v>121</v>
       </c>
-      <c r="E138" s="6">
-        <v>2857</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E138" s="10">
+        <v>20961</v>
+      </c>
+      <c r="F138" s="10">
+        <v>19886</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>152</v>
-      </c>
-      <c r="C139" s="7" t="s">
-        <v>145</v>
+        <v>108</v>
+      </c>
+      <c r="C139" s="9" t="s">
+        <v>113</v>
       </c>
       <c r="D139" t="s">
         <v>121</v>
       </c>
-      <c r="E139" s="5">
-        <v>3148</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E139" s="10">
+        <v>12258</v>
+      </c>
+      <c r="F139" s="10">
+        <v>12174</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="D140" t="s">
         <v>121</v>
       </c>
-      <c r="E140" s="6">
-        <v>3938</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E140" s="10">
+        <v>19583</v>
+      </c>
+      <c r="F140" s="10">
+        <v>19565</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="D141" t="s">
         <v>121</v>
       </c>
-      <c r="E141" s="6">
-        <v>2863</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E141" s="10">
+        <v>23117</v>
+      </c>
+      <c r="F141" s="10">
+        <v>22388</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="D142" t="s">
         <v>121</v>
       </c>
-      <c r="E142" s="6">
-        <v>3584</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E142" s="10">
+        <v>32623</v>
+      </c>
+      <c r="F142" s="10">
+        <v>32168</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>152</v>
-      </c>
-      <c r="C143" s="7" t="s">
-        <v>149</v>
+        <v>108</v>
+      </c>
+      <c r="C143" s="9" t="s">
+        <v>117</v>
       </c>
       <c r="D143" t="s">
         <v>121</v>
       </c>
-      <c r="E143" s="5">
-        <v>3534</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E143" s="10">
+        <v>20785</v>
+      </c>
+      <c r="F143" s="10">
+        <v>18893</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>152</v>
-      </c>
-      <c r="C144" s="8" t="s">
-        <v>150</v>
+        <v>108</v>
+      </c>
+      <c r="C144" s="9" t="s">
+        <v>118</v>
       </c>
       <c r="D144" t="s">
         <v>121</v>
       </c>
-      <c r="E144" s="5">
-        <v>3302</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E144" s="10">
+        <v>16108</v>
+      </c>
+      <c r="F144" s="10">
+        <v>15372</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>152</v>
-      </c>
-      <c r="C145" s="7" t="s">
-        <v>151</v>
+        <v>108</v>
+      </c>
+      <c r="C145" s="9" t="s">
+        <v>119</v>
       </c>
       <c r="D145" t="s">
         <v>121</v>
       </c>
-      <c r="E145" s="5">
-        <v>4863</v>
+      <c r="E145" s="10">
+        <v>20688</v>
+      </c>
+      <c r="F145" s="10">
+        <v>19551</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>108</v>
+      </c>
+      <c r="C146" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D146" t="s">
+        <v>121</v>
+      </c>
+      <c r="E146" s="10">
+        <v>22876</v>
+      </c>
+      <c r="F146" s="10">
+        <v>20576</v>
       </c>
     </row>
   </sheetData>

--- a/02_Data/04_Social indicators/02_Cleaned Data/GDP.xlsx
+++ b/02_Data/04_Social indicators/02_Cleaned Data/GDP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhachaichi\Documents\ESPON-DATA\02_Data\04_Social indicators\02_Cleaned Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC80F82-227A-4D58-A3F0-7FCABDBB4882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45C04AA-BF54-4613-A38F-7DF79529BFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16155" yWindow="2400" windowWidth="12870" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1300" yWindow="2680" windowWidth="14400" windowHeight="7460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="164">
   <si>
     <t xml:space="preserve">Country </t>
   </si>
@@ -487,13 +487,43 @@
   </si>
   <si>
     <t>SLOVENIA</t>
+  </si>
+  <si>
+    <t>AUSTRIA</t>
+  </si>
+  <si>
+    <t>Burgenland</t>
+  </si>
+  <si>
+    <t>Lower Austria</t>
+  </si>
+  <si>
+    <t>Vienna</t>
+  </si>
+  <si>
+    <t>Carinthia</t>
+  </si>
+  <si>
+    <t>Styria</t>
+  </si>
+  <si>
+    <t>Upper Austria</t>
+  </si>
+  <si>
+    <t>Salzburg</t>
+  </si>
+  <si>
+    <t>Tyrol</t>
+  </si>
+  <si>
+    <t>Vorarlberg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -562,6 +592,24 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -586,12 +634,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -609,11 +658,24 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{3DDE1ED1-1459-46F2-AC2B-F60445D018EF}"/>
     <cellStyle name="Normál 2 2 2" xfId="1" xr:uid="{E636B571-D1B6-4084-A892-D5BFE4EC7A25}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{474424A5-CD63-4679-A583-167519B05561}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -891,24 +953,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G146"/>
+  <dimension ref="A1:G156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="B140" sqref="B140"/>
+    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="F147" sqref="F147"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17.453125" customWidth="1"/>
+    <col min="2" max="2" width="14.1796875" customWidth="1"/>
+    <col min="3" max="3" width="19.81640625" customWidth="1"/>
+    <col min="4" max="4" width="15.26953125" customWidth="1"/>
+    <col min="5" max="5" width="13.26953125" customWidth="1"/>
+    <col min="6" max="6" width="13.1796875" customWidth="1"/>
+    <col min="7" max="7" width="14.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -931,7 +993,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -945,7 +1007,7 @@
         <v>5461.9501953125</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -959,7 +1021,7 @@
         <v>5354.7998046875</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -973,7 +1035,7 @@
         <v>5131.775390625</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -987,7 +1049,7 @@
         <v>5124.3447265625</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1001,7 +1063,7 @@
         <v>5116.93994140625</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1015,7 +1077,7 @@
         <v>5096.60498046875</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1029,7 +1091,7 @@
         <v>5070.85986328125</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1043,7 +1105,7 @@
         <v>5028.5400390625</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1057,7 +1119,7 @@
         <v>4932.27001953125</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1071,7 +1133,7 @@
         <v>4884.06982421875</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1085,7 +1147,7 @@
         <v>4862.6298828125</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1099,7 +1161,7 @@
         <v>4852.43994140625</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -1113,7 +1175,7 @@
         <v>4842.4453125</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1127,7 +1189,7 @@
         <v>4765.43017578125</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -1141,7 +1203,7 @@
         <v>4753.56982421875</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -1155,7 +1217,7 @@
         <v>4690.330078125</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -1169,7 +1231,7 @@
         <v>4657.6513671875</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -1183,7 +1245,7 @@
         <v>4547.64013671875</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -1197,7 +1259,7 @@
         <v>4542.080078125</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -1211,7 +1273,7 @@
         <v>4517.43017578125</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -1225,7 +1287,7 @@
         <v>4502.46484375</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -1239,7 +1301,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -1253,7 +1315,7 @@
         <v>4473.8203125</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -1267,7 +1329,7 @@
         <v>4405.39990234375</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -1281,7 +1343,7 @@
         <v>4362.990234375</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -1295,7 +1357,7 @@
         <v>4355.6298828125</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -1309,7 +1371,7 @@
         <v>4313.41015625</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -1323,7 +1385,7 @@
         <v>4305.68505859375</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -1337,7 +1399,7 @@
         <v>4286.8447265625</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -1351,7 +1413,7 @@
         <v>4244.33984375</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -1365,7 +1427,7 @@
         <v>4236.5458984375</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -1379,7 +1441,7 @@
         <v>4227.7900390625</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -1393,7 +1455,7 @@
         <v>4203.33984375</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -1407,7 +1469,7 @@
         <v>4180.31005859375</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -1421,7 +1483,7 @@
         <v>4178.52001953125</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -1435,7 +1497,7 @@
         <v>4166.669921875</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -1449,7 +1511,7 @@
         <v>4101.830078125</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -1463,7 +1525,7 @@
         <v>4098.1552734375</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -1477,7 +1539,7 @@
         <v>4097.64208984375</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -1491,7 +1553,7 @@
         <v>4046.8740234375</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -1505,7 +1567,7 @@
         <v>4037.449951171875</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -1519,7 +1581,7 @@
         <v>4037.2099609375</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -1533,7 +1595,7 @@
         <v>4025.949951171875</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -1547,7 +1609,7 @@
         <v>3955.420166015625</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -1561,7 +1623,7 @@
         <v>3952.66796875</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -1575,7 +1637,7 @@
         <v>3945.86083984375</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -1589,7 +1651,7 @@
         <v>3939.75</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -1603,7 +1665,7 @@
         <v>3939.389892578125</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -1617,7 +1679,7 @@
         <v>3872.885009765625</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -1631,7 +1693,7 @@
         <v>3848.601806640625</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -1645,7 +1707,7 @@
         <v>3826.31005859375</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -1659,7 +1721,7 @@
         <v>3825.89013671875</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -1673,7 +1735,7 @@
         <v>3769.89208984375</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>4</v>
       </c>
@@ -1687,7 +1749,7 @@
         <v>3757.3798828125</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>4</v>
       </c>
@@ -1701,7 +1763,7 @@
         <v>3741.574951171875</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>4</v>
       </c>
@@ -1715,7 +1777,7 @@
         <v>3728.300048828125</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>4</v>
       </c>
@@ -1729,7 +1791,7 @@
         <v>3698.179931640625</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>4</v>
       </c>
@@ -1743,7 +1805,7 @@
         <v>3692.718017578125</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>4</v>
       </c>
@@ -1757,7 +1819,7 @@
         <v>3673.1240234375</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>4</v>
       </c>
@@ -1771,7 +1833,7 @@
         <v>3661.739990234375</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>4</v>
       </c>
@@ -1785,7 +1847,7 @@
         <v>3642.989990234375</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>4</v>
       </c>
@@ -1799,7 +1861,7 @@
         <v>3640</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>4</v>
       </c>
@@ -1813,7 +1875,7 @@
         <v>3629.389892578125</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>4</v>
       </c>
@@ -1827,7 +1889,7 @@
         <v>3619.739990234375</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>4</v>
       </c>
@@ -1841,7 +1903,7 @@
         <v>3605.7001953125</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>4</v>
       </c>
@@ -1855,7 +1917,7 @@
         <v>3564.679931640625</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>4</v>
       </c>
@@ -1869,7 +1931,7 @@
         <v>3563.64990234375</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>4</v>
       </c>
@@ -1883,7 +1945,7 @@
         <v>3559.48486328125</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>4</v>
       </c>
@@ -1897,7 +1959,7 @@
         <v>3540.662109375</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>4</v>
       </c>
@@ -1911,7 +1973,7 @@
         <v>3532.10498046875</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>4</v>
       </c>
@@ -1925,7 +1987,7 @@
         <v>3525.427001953125</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>4</v>
       </c>
@@ -1939,7 +2001,7 @@
         <v>3510.06005859375</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>4</v>
       </c>
@@ -1953,7 +2015,7 @@
         <v>3496.3701171875</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>4</v>
       </c>
@@ -1967,7 +2029,7 @@
         <v>3489.889892578125</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>4</v>
       </c>
@@ -1981,7 +2043,7 @@
         <v>3463.070068359375</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>4</v>
       </c>
@@ -1995,7 +2057,7 @@
         <v>3449.0751953125</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>4</v>
       </c>
@@ -2009,7 +2071,7 @@
         <v>3443.510009765625</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>4</v>
       </c>
@@ -2023,7 +2085,7 @@
         <v>3390.23486328125</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>4</v>
       </c>
@@ -2037,7 +2099,7 @@
         <v>3367.482177734375</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>4</v>
       </c>
@@ -2051,7 +2113,7 @@
         <v>3360</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>4</v>
       </c>
@@ -2065,7 +2127,7 @@
         <v>3357.889892578125</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>4</v>
       </c>
@@ -2079,7 +2141,7 @@
         <v>3322.27001953125</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>4</v>
       </c>
@@ -2093,7 +2155,7 @@
         <v>3285.2080078125</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>4</v>
       </c>
@@ -2107,7 +2169,7 @@
         <v>3279.989990234375</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>4</v>
       </c>
@@ -2121,7 +2183,7 @@
         <v>3279.60302734375</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>4</v>
       </c>
@@ -2135,7 +2197,7 @@
         <v>3222.419921875</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>4</v>
       </c>
@@ -2149,7 +2211,7 @@
         <v>3202.235107421875</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>4</v>
       </c>
@@ -2163,7 +2225,7 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>4</v>
       </c>
@@ -2177,7 +2239,7 @@
         <v>3148.6298828125</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>4</v>
       </c>
@@ -2191,7 +2253,7 @@
         <v>3116.22998046875</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>4</v>
       </c>
@@ -2205,7 +2267,7 @@
         <v>2996.19091796875</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>4</v>
       </c>
@@ -2219,7 +2281,7 @@
         <v>2982.639892578125</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>4</v>
       </c>
@@ -2233,7 +2295,7 @@
         <v>2962.009033203125</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>4</v>
       </c>
@@ -2247,7 +2309,7 @@
         <v>2886.570068359375</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>4</v>
       </c>
@@ -2261,7 +2323,7 @@
         <v>2853.4951171875</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>4</v>
       </c>
@@ -2275,7 +2337,7 @@
         <v>2840.864990234375</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>4</v>
       </c>
@@ -2289,7 +2351,7 @@
         <v>2817.484130859375</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>4</v>
       </c>
@@ -2303,7 +2365,7 @@
         <v>2796.06494140625</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>4</v>
       </c>
@@ -2317,7 +2379,7 @@
         <v>2783.22998046875</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>4</v>
       </c>
@@ -2331,7 +2393,7 @@
         <v>2779.18017578125</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>4</v>
       </c>
@@ -2345,7 +2407,7 @@
         <v>2711.510009765625</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>4</v>
       </c>
@@ -2359,7 +2421,7 @@
         <v>2635.419921875</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>152</v>
       </c>
@@ -2374,7 +2436,7 @@
       </c>
       <c r="F104" s="2"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>152</v>
       </c>
@@ -2389,7 +2451,7 @@
       </c>
       <c r="F105" s="2"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>152</v>
       </c>
@@ -2404,7 +2466,7 @@
       </c>
       <c r="F106" s="2"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>152</v>
       </c>
@@ -2419,7 +2481,7 @@
       </c>
       <c r="F107" s="2"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>152</v>
       </c>
@@ -2434,7 +2496,7 @@
       </c>
       <c r="F108" s="2"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>152</v>
       </c>
@@ -2449,7 +2511,7 @@
       </c>
       <c r="F109" s="2"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>152</v>
       </c>
@@ -2464,7 +2526,7 @@
       </c>
       <c r="F110" s="2"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>152</v>
       </c>
@@ -2479,7 +2541,7 @@
       </c>
       <c r="F111" s="2"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>152</v>
       </c>
@@ -2494,7 +2556,7 @@
       </c>
       <c r="F112" s="2"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>152</v>
       </c>
@@ -2509,7 +2571,7 @@
       </c>
       <c r="F113" s="2"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>152</v>
       </c>
@@ -2524,7 +2586,7 @@
       </c>
       <c r="F114" s="2"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>152</v>
       </c>
@@ -2539,7 +2601,7 @@
       </c>
       <c r="F115" s="2"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>152</v>
       </c>
@@ -2554,7 +2616,7 @@
       </c>
       <c r="F116" s="2"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>152</v>
       </c>
@@ -2568,7 +2630,7 @@
         <v>3697</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>152</v>
       </c>
@@ -2582,7 +2644,7 @@
         <v>3351</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>152</v>
       </c>
@@ -2596,7 +2658,7 @@
         <v>4224</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>152</v>
       </c>
@@ -2610,7 +2672,7 @@
         <v>3336</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>152</v>
       </c>
@@ -2624,7 +2686,7 @@
         <v>3745</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>152</v>
       </c>
@@ -2638,7 +2700,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>152</v>
       </c>
@@ -2652,7 +2714,7 @@
         <v>3244</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>152</v>
       </c>
@@ -2666,7 +2728,7 @@
         <v>3466</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>152</v>
       </c>
@@ -2680,7 +2742,7 @@
         <v>3129</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>152</v>
       </c>
@@ -2694,7 +2756,7 @@
         <v>2857</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>152</v>
       </c>
@@ -2708,7 +2770,7 @@
         <v>3148</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>152</v>
       </c>
@@ -2722,7 +2784,7 @@
         <v>3938</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>152</v>
       </c>
@@ -2736,7 +2798,7 @@
         <v>2863</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>152</v>
       </c>
@@ -2750,7 +2812,7 @@
         <v>3584</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>152</v>
       </c>
@@ -2764,7 +2826,7 @@
         <v>3534</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>152</v>
       </c>
@@ -2778,7 +2840,7 @@
         <v>3302</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>152</v>
       </c>
@@ -2792,7 +2854,7 @@
         <v>4863</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>108</v>
       </c>
@@ -2809,7 +2871,7 @@
         <v>22312</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>108</v>
       </c>
@@ -2826,7 +2888,7 @@
         <v>15448</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>108</v>
       </c>
@@ -2843,7 +2905,7 @@
         <v>18185</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>108</v>
       </c>
@@ -2860,7 +2922,7 @@
         <v>17756</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>108</v>
       </c>
@@ -2877,7 +2939,7 @@
         <v>19886</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>108</v>
       </c>
@@ -2894,7 +2956,7 @@
         <v>12174</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>108</v>
       </c>
@@ -2911,7 +2973,7 @@
         <v>19565</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>108</v>
       </c>
@@ -2928,7 +2990,7 @@
         <v>22388</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>108</v>
       </c>
@@ -2945,7 +3007,7 @@
         <v>32168</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>108</v>
       </c>
@@ -2962,7 +3024,7 @@
         <v>18893</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>108</v>
       </c>
@@ -2979,7 +3041,7 @@
         <v>15372</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>108</v>
       </c>
@@ -2996,7 +3058,7 @@
         <v>19551</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>108</v>
       </c>
@@ -3011,6 +3073,86 @@
       </c>
       <c r="F146" s="10">
         <v>20576</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C147" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="F147" s="12">
+        <v>379321</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C148" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="F148" s="14">
+        <v>8921</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C149" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="F149" s="14">
+        <v>59525</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C150" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="F150" s="14">
+        <v>96594</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C151" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="F151" s="14">
+        <v>20697</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C152" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="F152" s="14">
+        <v>48594</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C153" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="F153" s="14">
+        <v>65240</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C154" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="F154" s="14">
+        <v>27946</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C155" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="F155" s="14">
+        <v>33454</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C156" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F156" s="14">
+        <v>18205</v>
       </c>
     </row>
   </sheetData>
